--- a/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3AAA87-D68C-43CB-816D-E4064A0E9E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55647B14-E12B-4A1A-B89E-557367B4AD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -195,10 +195,6 @@
   </si>
   <si>
     <t>질풍참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선풍참흔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1634,6 +1630,10 @@
   </si>
   <si>
     <t>신에게 바치는 검을 가슴 앞에 곧게 세운 채, 전장의 중심에서 조용히 기도를 올린다. 기도가 깊어질수록 땅 위에 신성한 기운이 스며들고, 검 끝에서 퍼져나간 빛이 공간을 감싸며 거룩한 영역을 형성해나간다. 하늘에 닿은 간절한 기도에 응답하듯, 찬란한 빛줄기가 검에 내리꽂히고 그 자리는 더 이상 전장이 아닌, 신의 뜻이 깃든 성역으로 변화한다. 폭발한 신성력은 주변 적에게 {dmg_1}의 피해를 입히고 강한 충격으로 날려버리며, 동시에 신앙 게이지를 {identity_gauge_recover}% 회복한다. 또한 자신과 24.0m 범위 내의 파티원에게 {duration_shield}초간 자신의 최대 생명력의 {max_hp_ratio}%에 해당하는 보호막을 부여하며, {duration_buff}초간 죽음에 이르는 피해를 입을 경우 {duration_invincibility}초간 무적 상태가 되는 축복을 내려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍참혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1832,7 +1832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2179,13 +2179,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2354,10 +2404,7 @@
     <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2389,6 +2436,48 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2784,11 +2873,11 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="2:17" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B3" s="40"/>
@@ -2809,16 +2898,16 @@
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="17"/>
       <c r="C4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="24"/>
@@ -2841,13 +2930,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -2881,7 +2970,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
@@ -2891,13 +2980,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -2913,7 +3002,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -2923,76 +3012,76 @@
       <c r="F10" s="39"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="49"/>
@@ -3028,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -3054,10 +3143,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -3066,7 +3155,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3098,24 +3187,24 @@
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>296</v>
+    <row r="2" spans="1:32" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>295</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
@@ -3145,20 +3234,20 @@
       <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="52" t="s">
-        <v>397</v>
+      <c r="A3" s="56" t="s">
+        <v>396</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="13">
         <v>113</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
@@ -3189,17 +3278,17 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="13">
         <v>113</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -3230,17 +3319,17 @@
     </row>
     <row r="5" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D5" s="13">
         <v>113</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G5" s="8"/>
       <c r="S5" s="8"/>
@@ -3252,23 +3341,23 @@
       <c r="AB5" s="8"/>
     </row>
     <row r="6" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
-        <v>396</v>
+      <c r="A6" s="64" t="s">
+        <v>395</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D6" s="13">
         <v>113</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G6" s="8"/>
       <c r="S6" s="8"/>
@@ -3280,21 +3369,21 @@
       <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D7" s="13">
         <v>113</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G7" s="8"/>
       <c r="S7" s="8"/>
@@ -3306,21 +3395,21 @@
       <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" s="13">
         <v>113</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" s="8"/>
       <c r="S8" s="8"/>
@@ -3332,21 +3421,21 @@
       <c r="AB8" s="8"/>
     </row>
     <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D9" s="13">
         <v>113</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="8"/>
       <c r="S9" s="8"/>
@@ -3358,21 +3447,21 @@
       <c r="AB9" s="8"/>
     </row>
     <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" s="13">
         <v>113</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G10" s="8"/>
       <c r="S10" s="8"/>
@@ -3384,21 +3473,21 @@
       <c r="AB10" s="8"/>
     </row>
     <row r="11" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" s="13">
         <v>113</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G11" s="8"/>
       <c r="S11" s="8"/>
@@ -3410,23 +3499,23 @@
       <c r="AB11" s="8"/>
     </row>
     <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="62" t="s">
-        <v>378</v>
+      <c r="A12" s="61" t="s">
+        <v>377</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="13">
         <v>113</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G12" s="8"/>
       <c r="S12" s="8"/>
@@ -3438,21 +3527,21 @@
       <c r="AB12" s="8"/>
     </row>
     <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="13">
         <v>113</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G13" s="8"/>
       <c r="S13" s="8"/>
@@ -3464,21 +3553,21 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A14" s="63"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D14" s="13">
         <v>113</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G14" s="8"/>
       <c r="S14" s="8"/>
@@ -3490,21 +3579,21 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D15" s="13">
         <v>113</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G15" s="8"/>
       <c r="S15" s="8"/>
@@ -3516,21 +3605,21 @@
       <c r="AB15" s="8"/>
     </row>
     <row r="16" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="13">
         <v>113</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G16" s="8"/>
       <c r="S16" s="8"/>
@@ -3542,21 +3631,21 @@
       <c r="AB16" s="8"/>
     </row>
     <row r="17" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" s="13">
         <v>113</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G17" s="8"/>
       <c r="S17" s="8"/>
@@ -3568,23 +3657,23 @@
       <c r="AB17" s="8"/>
     </row>
     <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="62" t="s">
-        <v>384</v>
+      <c r="A18" s="61" t="s">
+        <v>383</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" s="13">
         <v>113</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G18" s="8"/>
       <c r="S18" s="8"/>
@@ -3596,21 +3685,21 @@
       <c r="AB18" s="8"/>
     </row>
     <row r="19" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D19" s="13">
         <v>113</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G19" s="8"/>
       <c r="S19" s="8"/>
@@ -3622,21 +3711,21 @@
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="63"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D20" s="13">
         <v>113</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G20" s="8"/>
       <c r="S20" s="8"/>
@@ -3648,21 +3737,21 @@
       <c r="AB20" s="8"/>
     </row>
     <row r="21" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D21" s="13">
         <v>113</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G21" s="8"/>
       <c r="S21" s="8"/>
@@ -3674,21 +3763,21 @@
       <c r="AB21" s="8"/>
     </row>
     <row r="22" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D22" s="13">
         <v>113</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G22" s="8"/>
       <c r="S22" s="8"/>
@@ -3700,21 +3789,21 @@
       <c r="AB22" s="8"/>
     </row>
     <row r="23" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A23" s="64"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" s="13">
         <v>113</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G23" s="8"/>
       <c r="S23" s="8"/>
@@ -3727,22 +3816,22 @@
     </row>
     <row r="24" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A24" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D24" s="13">
         <v>113</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G24" s="8"/>
       <c r="S24" s="8"/>
@@ -3755,22 +3844,22 @@
     </row>
     <row r="25" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A25" s="52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="13">
         <v>113</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G25" s="8"/>
       <c r="S25" s="8"/>
@@ -3783,22 +3872,22 @@
     </row>
     <row r="26" spans="1:28" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D26" s="13">
         <v>113</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G26" s="8"/>
       <c r="S26" s="8"/>
@@ -3811,22 +3900,22 @@
     </row>
     <row r="27" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A27" s="52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D27" s="13">
         <v>113</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G27" s="8"/>
       <c r="S27" s="8"/>
@@ -3839,22 +3928,22 @@
     </row>
     <row r="28" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A28" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" s="13">
         <v>113</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G28" s="8"/>
       <c r="S28" s="8"/>
@@ -3867,22 +3956,22 @@
     </row>
     <row r="29" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A29" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D29" s="13">
         <v>113</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G29" s="8"/>
       <c r="S29" s="8"/>
@@ -3895,22 +3984,22 @@
     </row>
     <row r="30" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A30" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D30" s="13">
         <v>113</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G30" s="8"/>
       <c r="S30" s="8"/>
@@ -3923,22 +4012,22 @@
     </row>
     <row r="31" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A31" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D31" s="13">
         <v>113</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G31" s="8"/>
       <c r="S31" s="8"/>
@@ -3951,22 +4040,22 @@
     </row>
     <row r="32" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A32" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="D32" s="13">
         <v>113</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G32" s="8"/>
       <c r="S32" s="8"/>
@@ -3977,24 +4066,24 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
     </row>
-    <row r="33" spans="1:32" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.4">
-      <c r="A33" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="C33" s="12" t="s">
+    <row r="33" spans="1:32" s="9" customFormat="1" ht="54.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="D33" s="13">
+      <c r="B33" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="75">
         <v>113</v>
       </c>
-      <c r="E33" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>359</v>
+      <c r="E33" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="F33" s="74" t="s">
+        <v>358</v>
       </c>
       <c r="G33" s="8"/>
       <c r="S33" s="8"/>
@@ -4005,24 +4094,24 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>296</v>
+    <row r="34" spans="1:32" s="9" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>295</v>
       </c>
       <c r="G34" s="8"/>
       <c r="S34" s="8"/>
@@ -4034,23 +4123,23 @@
       <c r="AB34" s="8"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A35" s="52" t="s">
-        <v>85</v>
+      <c r="A35" s="56" t="s">
+        <v>84</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="13">
         <v>305</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
@@ -4081,19 +4170,19 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="13">
         <v>305</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
@@ -4124,20 +4213,20 @@
     </row>
     <row r="37" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="13">
         <v>305</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="8"/>
       <c r="S37" s="8"/>
@@ -4150,20 +4239,20 @@
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="13">
         <v>305</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="8"/>
       <c r="S38" s="8"/>
@@ -4176,20 +4265,20 @@
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="D39" s="13">
         <v>305</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="8"/>
       <c r="S39" s="8"/>
@@ -4201,11 +4290,11 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="62" t="s">
-        <v>132</v>
+      <c r="A40" s="61" t="s">
+        <v>131</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>31</v>
@@ -4214,7 +4303,7 @@
         <v>305</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>32</v>
@@ -4229,9 +4318,9 @@
       <c r="AB40" s="8"/>
     </row>
     <row r="41" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="63"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>33</v>
@@ -4240,10 +4329,10 @@
         <v>305</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="8"/>
       <c r="S41" s="8"/>
@@ -4255,9 +4344,9 @@
       <c r="AB41" s="8"/>
     </row>
     <row r="42" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="63"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>34</v>
@@ -4266,10 +4355,10 @@
         <v>305</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="8"/>
       <c r="S42" s="8"/>
@@ -4281,9 +4370,9 @@
       <c r="AB42" s="8"/>
     </row>
     <row r="43" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A43" s="63"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>35</v>
@@ -4292,10 +4381,10 @@
         <v>305</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="8"/>
       <c r="S43" s="8"/>
@@ -4307,9 +4396,9 @@
       <c r="AB43" s="8"/>
     </row>
     <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="63"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>36</v>
@@ -4318,10 +4407,10 @@
         <v>305</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="8"/>
       <c r="S44" s="8"/>
@@ -4333,9 +4422,9 @@
       <c r="AB44" s="8"/>
     </row>
     <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="63"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>37</v>
@@ -4344,10 +4433,10 @@
         <v>305</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="8"/>
       <c r="S45" s="8"/>
@@ -4359,9 +4448,9 @@
       <c r="AB45" s="8"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A46" s="63"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>38</v>
@@ -4370,10 +4459,10 @@
         <v>305</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="8"/>
       <c r="S46" s="8"/>
@@ -4385,9 +4474,9 @@
       <c r="AB46" s="8"/>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="63"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>39</v>
@@ -4396,10 +4485,10 @@
         <v>305</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="8"/>
       <c r="S47" s="8"/>
@@ -4411,9 +4500,9 @@
       <c r="AB47" s="8"/>
     </row>
     <row r="48" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A48" s="63"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>40</v>
@@ -4422,10 +4511,10 @@
         <v>305</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="8"/>
       <c r="S48" s="8"/>
@@ -4437,9 +4526,9 @@
       <c r="AB48" s="8"/>
     </row>
     <row r="49" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="63"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>41</v>
@@ -4448,10 +4537,10 @@
         <v>305</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" s="8"/>
       <c r="S49" s="8"/>
@@ -4463,9 +4552,9 @@
       <c r="AB49" s="8"/>
     </row>
     <row r="50" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="63"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>14</v>
@@ -4474,7 +4563,7 @@
         <v>305</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>24</v>
@@ -4489,21 +4578,21 @@
       <c r="AB50" s="8"/>
     </row>
     <row r="51" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A51" s="63"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="D51" s="13">
         <v>305</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="8"/>
       <c r="S51" s="8"/>
@@ -4515,21 +4604,21 @@
       <c r="AB51" s="8"/>
     </row>
     <row r="52" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A52" s="63"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="13">
         <v>305</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" s="8"/>
       <c r="S52" s="8"/>
@@ -4541,9 +4630,9 @@
       <c r="AB52" s="8"/>
     </row>
     <row r="53" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A53" s="64"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>5</v>
@@ -4552,7 +4641,7 @@
         <v>305</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>21</v>
@@ -4568,20 +4657,20 @@
     </row>
     <row r="54" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="13">
         <v>305</v>
       </c>
       <c r="E54" s="47"/>
       <c r="F54" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="8"/>
       <c r="S54" s="8"/>
@@ -4593,23 +4682,23 @@
       <c r="AB54" s="8"/>
     </row>
     <row r="55" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="65" t="s">
-        <v>133</v>
+      <c r="A55" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="13">
         <v>305</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G55" s="8"/>
       <c r="S55" s="8"/>
@@ -4621,21 +4710,21 @@
       <c r="AB55" s="8"/>
     </row>
     <row r="56" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="13">
         <v>305</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="8"/>
       <c r="S56" s="8"/>
@@ -4647,21 +4736,21 @@
       <c r="AB56" s="8"/>
     </row>
     <row r="57" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="13">
         <v>305</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="8"/>
       <c r="S57" s="8"/>
@@ -4673,9 +4762,9 @@
       <c r="AB57" s="8"/>
     </row>
     <row r="58" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>13</v>
@@ -4684,7 +4773,7 @@
         <v>305</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>23</v>
@@ -4699,21 +4788,21 @@
       <c r="AB58" s="8"/>
     </row>
     <row r="59" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="13">
         <v>305</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="8"/>
       <c r="S59" s="8"/>
@@ -4725,9 +4814,9 @@
       <c r="AB59" s="8"/>
     </row>
     <row r="60" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A60" s="67"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>6</v>
@@ -4736,7 +4825,7 @@
         <v>305</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>22</v>
@@ -4752,10 +4841,10 @@
     </row>
     <row r="61" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A61" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>3</v>
@@ -4767,7 +4856,7 @@
         <v>20</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G61" s="8"/>
       <c r="S61" s="8"/>
@@ -4780,10 +4869,10 @@
     </row>
     <row r="62" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A62" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>4</v>
@@ -4792,10 +4881,10 @@
         <v>305</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G62" s="8"/>
       <c r="S62" s="8"/>
@@ -4808,22 +4897,22 @@
     </row>
     <row r="63" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="13">
         <v>305</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="8"/>
       <c r="S63" s="8"/>
@@ -4836,22 +4925,22 @@
     </row>
     <row r="64" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" s="13">
         <v>305</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G64" s="8"/>
       <c r="S64" s="8"/>
@@ -4864,22 +4953,22 @@
     </row>
     <row r="65" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="13">
         <v>305</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" s="8"/>
       <c r="S65" s="8"/>
@@ -4892,22 +4981,22 @@
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A66" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="13">
         <v>305</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G66" s="8"/>
       <c r="S66" s="8"/>
@@ -4920,22 +5009,22 @@
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="13">
         <v>305</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G67" s="8"/>
       <c r="S67" s="8"/>
@@ -4946,22 +5035,22 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
     </row>
-    <row r="68" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="13">
+    <row r="68" spans="1:32" s="9" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="75">
         <v>305</v>
       </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="12" t="s">
-        <v>73</v>
+      <c r="E68" s="76"/>
+      <c r="F68" s="74" t="s">
+        <v>72</v>
       </c>
       <c r="G68" s="8"/>
       <c r="S68" s="8"/>
@@ -4972,24 +5061,24 @@
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
     </row>
-    <row r="69" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="D69" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F69" s="53" t="s">
-        <v>296</v>
+    <row r="69" spans="1:32" s="9" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="F69" s="78" t="s">
+        <v>295</v>
       </c>
       <c r="G69" s="8"/>
       <c r="S69" s="8"/>
@@ -5001,23 +5090,23 @@
       <c r="AB69" s="8"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A70" s="52" t="s">
-        <v>168</v>
+      <c r="A70" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" s="13">
         <v>313</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
@@ -5048,19 +5137,19 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A71" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D71" s="13">
         <v>313</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
@@ -5091,20 +5180,20 @@
     </row>
     <row r="72" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="D72" s="13">
         <v>313</v>
       </c>
       <c r="E72" s="47"/>
       <c r="F72" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G72" s="8"/>
       <c r="S72" s="8"/>
@@ -5117,20 +5206,20 @@
     </row>
     <row r="73" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="13">
         <v>313</v>
       </c>
       <c r="E73" s="47"/>
       <c r="F73" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G73" s="8"/>
       <c r="S73" s="8"/>
@@ -5142,23 +5231,23 @@
       <c r="AB73" s="8"/>
     </row>
     <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="65" t="s">
-        <v>234</v>
+      <c r="A74" s="64" t="s">
+        <v>233</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="13">
         <v>313</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G74" s="8"/>
       <c r="S74" s="8"/>
@@ -5170,21 +5259,21 @@
       <c r="AB74" s="8"/>
     </row>
     <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D75" s="13">
         <v>313</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G75" s="8"/>
       <c r="S75" s="8"/>
@@ -5196,21 +5285,21 @@
       <c r="AB75" s="8"/>
     </row>
     <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="13">
         <v>313</v>
       </c>
       <c r="E76" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G76" s="8"/>
       <c r="S76" s="8"/>
@@ -5222,21 +5311,21 @@
       <c r="AB76" s="8"/>
     </row>
     <row r="77" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D77" s="13">
         <v>313</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G77" s="8"/>
       <c r="S77" s="8"/>
@@ -5248,21 +5337,21 @@
       <c r="AB77" s="8"/>
     </row>
     <row r="78" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="13">
         <v>313</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G78" s="8"/>
       <c r="S78" s="8"/>
@@ -5274,21 +5363,21 @@
       <c r="AB78" s="8"/>
     </row>
     <row r="79" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="13">
         <v>313</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G79" s="8"/>
       <c r="S79" s="8"/>
@@ -5300,21 +5389,21 @@
       <c r="AB79" s="8"/>
     </row>
     <row r="80" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="13">
         <v>313</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G80" s="8"/>
       <c r="S80" s="8"/>
@@ -5326,21 +5415,21 @@
       <c r="AB80" s="8"/>
     </row>
     <row r="81" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="13">
         <v>313</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G81" s="8"/>
       <c r="S81" s="8"/>
@@ -5352,21 +5441,21 @@
       <c r="AB81" s="8"/>
     </row>
     <row r="82" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A82" s="67"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="13">
         <v>313</v>
       </c>
       <c r="E82" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G82" s="8"/>
       <c r="S82" s="8"/>
@@ -5378,23 +5467,23 @@
       <c r="AB82" s="8"/>
     </row>
     <row r="83" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="62" t="s">
-        <v>235</v>
+      <c r="A83" s="61" t="s">
+        <v>234</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="13">
         <v>313</v>
       </c>
       <c r="E83" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G83" s="8"/>
       <c r="S83" s="8"/>
@@ -5406,21 +5495,21 @@
       <c r="AB83" s="8"/>
     </row>
     <row r="84" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="63"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="13">
         <v>313</v>
       </c>
       <c r="E84" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G84" s="8"/>
       <c r="S84" s="8"/>
@@ -5432,21 +5521,21 @@
       <c r="AB84" s="8"/>
     </row>
     <row r="85" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="63"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85" s="13">
         <v>313</v>
       </c>
       <c r="E85" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G85" s="8"/>
       <c r="S85" s="8"/>
@@ -5458,21 +5547,21 @@
       <c r="AB85" s="8"/>
     </row>
     <row r="86" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="63"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="13">
         <v>313</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G86" s="8"/>
       <c r="S86" s="8"/>
@@ -5484,21 +5573,21 @@
       <c r="AB86" s="8"/>
     </row>
     <row r="87" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A87" s="63"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="13">
         <v>313</v>
       </c>
       <c r="E87" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G87" s="8"/>
       <c r="S87" s="8"/>
@@ -5510,21 +5599,21 @@
       <c r="AB87" s="8"/>
     </row>
     <row r="88" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A88" s="63"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D88" s="13">
         <v>313</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G88" s="8"/>
       <c r="S88" s="8"/>
@@ -5536,21 +5625,21 @@
       <c r="AB88" s="8"/>
     </row>
     <row r="89" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="63"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D89" s="13">
         <v>313</v>
       </c>
       <c r="E89" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G89" s="8"/>
       <c r="S89" s="8"/>
@@ -5562,21 +5651,21 @@
       <c r="AB89" s="8"/>
     </row>
     <row r="90" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A90" s="63"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D90" s="13">
         <v>313</v>
       </c>
       <c r="E90" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G90" s="8"/>
       <c r="S90" s="8"/>
@@ -5588,21 +5677,21 @@
       <c r="AB90" s="8"/>
     </row>
     <row r="91" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="64"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D91" s="13">
         <v>313</v>
       </c>
       <c r="E91" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G91" s="8"/>
       <c r="S91" s="8"/>
@@ -5615,10 +5704,10 @@
     </row>
     <row r="92" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>10</v>
@@ -5627,7 +5716,7 @@
         <v>313</v>
       </c>
       <c r="E92" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>26</v>
@@ -5643,10 +5732,10 @@
     </row>
     <row r="93" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A93" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>9</v>
@@ -5655,7 +5744,7 @@
         <v>313</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>25</v>
@@ -5671,22 +5760,22 @@
     </row>
     <row r="94" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="13">
         <v>313</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G94" s="8"/>
       <c r="S94" s="8"/>
@@ -5699,19 +5788,19 @@
     </row>
     <row r="95" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="13">
         <v>313</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>28</v>
@@ -5727,10 +5816,10 @@
     </row>
     <row r="96" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A96" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>12</v>
@@ -5739,7 +5828,7 @@
         <v>313</v>
       </c>
       <c r="E96" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>27</v>
@@ -5755,22 +5844,22 @@
     </row>
     <row r="97" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" s="13">
         <v>313</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G97" s="8"/>
       <c r="S97" s="8"/>
@@ -5783,10 +5872,10 @@
     </row>
     <row r="98" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A98" s="52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>11</v>
@@ -5795,10 +5884,10 @@
         <v>313</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G98" s="8"/>
       <c r="S98" s="8"/>
@@ -5811,22 +5900,22 @@
     </row>
     <row r="99" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A99" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D99" s="13">
         <v>313</v>
       </c>
       <c r="E99" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G99" s="8"/>
       <c r="S99" s="8"/>
@@ -5839,22 +5928,22 @@
     </row>
     <row r="100" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D100" s="13">
         <v>313</v>
       </c>
       <c r="E100" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G100" s="8"/>
       <c r="S100" s="8"/>
@@ -5867,22 +5956,22 @@
     </row>
     <row r="101" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A101" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D101" s="13">
         <v>313</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G101" s="8"/>
       <c r="S101" s="8"/>
@@ -5895,22 +5984,22 @@
     </row>
     <row r="102" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A102" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D102" s="13">
         <v>313</v>
       </c>
       <c r="E102" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G102" s="8"/>
       <c r="S102" s="8"/>
@@ -5921,24 +6010,24 @@
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
     </row>
-    <row r="103" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A103" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D103" s="13">
+    <row r="103" spans="1:28" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="75">
         <v>313</v>
       </c>
-      <c r="E103" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>254</v>
+      <c r="E103" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="F103" s="74" t="s">
+        <v>253</v>
       </c>
       <c r="G103" s="8"/>
       <c r="S103" s="8"/>
@@ -5950,23 +6039,23 @@
       <c r="AB103" s="8"/>
     </row>
     <row r="104" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="57" t="s">
-        <v>296</v>
+      <c r="A104" s="72" t="s">
+        <v>295</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F104" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G104" s="8"/>
       <c r="S104" s="8"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55647B14-E12B-4A1A-B89E-557367B4AD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1B750-C255-4E73-9817-0C56BC3ED58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1776,7 +1776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1825,14 +1825,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1988,51 +1982,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -2180,53 +2129,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2235,249 +2160,234 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="9" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="9" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2861,245 +2771,245 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="52.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="18"/>
+    <col min="1" max="1" width="4.19921875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="52.09765625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="3" spans="2:17" s="45" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="2:17" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <f>ROW(C5)-4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27">
         <f t="shared" ref="C6:C9" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="31" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3117,2988 +3027,2988 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.296875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="14" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" style="10" customWidth="1"/>
-    <col min="11" max="18" width="15.69921875" style="10" customWidth="1"/>
-    <col min="19" max="21" width="15.69921875" style="14" customWidth="1"/>
-    <col min="22" max="23" width="15.69921875" style="10" customWidth="1"/>
-    <col min="24" max="24" width="18.69921875" style="10" customWidth="1"/>
-    <col min="25" max="28" width="15.69921875" style="14" customWidth="1"/>
-    <col min="29" max="32" width="18.69921875" style="10" customWidth="1"/>
-    <col min="33" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="1" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.296875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="10" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" style="6" customWidth="1"/>
+    <col min="11" max="18" width="15.69921875" style="6" customWidth="1"/>
+    <col min="19" max="21" width="15.69921875" style="10" customWidth="1"/>
+    <col min="22" max="23" width="15.69921875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.69921875" style="6" customWidth="1"/>
+    <col min="25" max="28" width="15.69921875" style="10" customWidth="1"/>
+    <col min="29" max="32" width="18.69921875" style="6" customWidth="1"/>
+    <col min="33" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-    </row>
-    <row r="2" spans="1:32" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="67" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32" s="72" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>113</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13">
+      <c r="C4" s="5"/>
+      <c r="D4" s="9">
         <v>113</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-    </row>
-    <row r="5" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>113</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-    </row>
-    <row r="6" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
+      <c r="G5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>113</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-    </row>
-    <row r="7" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65"/>
-      <c r="B7" s="12" t="s">
+      <c r="G6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="58"/>
+      <c r="B7" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>113</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65"/>
-      <c r="B8" s="12" t="s">
+      <c r="G7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="58"/>
+      <c r="B8" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>113</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-    </row>
-    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65"/>
-      <c r="B9" s="12" t="s">
+      <c r="G8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>113</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-    </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65"/>
-      <c r="B10" s="12" t="s">
+      <c r="G9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>113</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-    </row>
-    <row r="11" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="66"/>
-      <c r="B11" s="12" t="s">
+      <c r="G10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="59"/>
+      <c r="B11" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>113</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-    </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="61" t="s">
+      <c r="G11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>113</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-    </row>
-    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="62"/>
-      <c r="B13" s="12" t="s">
+      <c r="G12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="55"/>
+      <c r="B13" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>113</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-    </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
-      <c r="B14" s="12" t="s">
+      <c r="G13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="55"/>
+      <c r="B14" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>113</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-    </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="62"/>
-      <c r="B15" s="12" t="s">
+      <c r="G14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="55"/>
+      <c r="B15" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>113</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="62"/>
-      <c r="B16" s="12" t="s">
+      <c r="G15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="55"/>
+      <c r="B16" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>113</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-    </row>
-    <row r="17" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="12" t="s">
+      <c r="G16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="56"/>
+      <c r="B17" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>113</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-    </row>
-    <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="61" t="s">
+      <c r="G17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>113</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-    </row>
-    <row r="19" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A19" s="62"/>
-      <c r="B19" s="12" t="s">
+      <c r="G18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="55"/>
+      <c r="B19" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>113</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-    </row>
-    <row r="20" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
-      <c r="B20" s="12" t="s">
+      <c r="G19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="55"/>
+      <c r="B20" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>113</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-    </row>
-    <row r="21" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="12" t="s">
+      <c r="G20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A21" s="55"/>
+      <c r="B21" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>113</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-    </row>
-    <row r="22" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="62"/>
-      <c r="B22" s="12" t="s">
+      <c r="G21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="55"/>
+      <c r="B22" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>113</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-    </row>
-    <row r="23" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="12" t="s">
+      <c r="G22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A23" s="56"/>
+      <c r="B23" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>113</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-    </row>
-    <row r="24" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="52" t="s">
+      <c r="G23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>113</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-    </row>
-    <row r="25" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A25" s="52" t="s">
+      <c r="G24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="9">
         <v>113</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-    </row>
-    <row r="26" spans="1:28" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="52" t="s">
+      <c r="G25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <v>113</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-    </row>
-    <row r="27" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="52" t="s">
+      <c r="G26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <v>113</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-    </row>
-    <row r="28" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="52" t="s">
+      <c r="G27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="9">
         <v>113</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-    </row>
-    <row r="29" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A29" s="52" t="s">
+      <c r="G28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A29" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="9">
         <v>113</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-    </row>
-    <row r="30" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A30" s="52" t="s">
+      <c r="G29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <v>113</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A31" s="52" t="s">
+      <c r="G30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A31" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="9">
         <v>113</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-    </row>
-    <row r="32" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A32" s="52" t="s">
+      <c r="G31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="9">
         <v>113</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-    </row>
-    <row r="33" spans="1:32" s="9" customFormat="1" ht="54.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="73" t="s">
+      <c r="G32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:32" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
+      <c r="A33" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>328</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="73" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="74">
         <v>113</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="75" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" s="9" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="77" t="s">
+      <c r="G33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="1:32" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
+      <c r="G34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="9">
         <v>305</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="9">
         <v>305</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-    </row>
-    <row r="37" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="52" t="s">
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="9">
         <v>305</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="42"/>
+      <c r="F37" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-    </row>
-    <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="52" t="s">
+      <c r="G37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="9">
         <v>305</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-    </row>
-    <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="52" t="s">
+      <c r="G38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="9">
         <v>305</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="42"/>
+      <c r="F39" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-    </row>
-    <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="61" t="s">
+      <c r="G39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="9">
         <v>305</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-    </row>
-    <row r="41" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="62"/>
-      <c r="B41" s="12" t="s">
+      <c r="G40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="55"/>
+      <c r="B41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="9">
         <v>305</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-    </row>
-    <row r="42" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="62"/>
-      <c r="B42" s="12" t="s">
+      <c r="G41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="55"/>
+      <c r="B42" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="9">
         <v>305</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-    </row>
-    <row r="43" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A43" s="62"/>
-      <c r="B43" s="12" t="s">
+      <c r="G42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="55"/>
+      <c r="B43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="9">
         <v>305</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-    </row>
-    <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="62"/>
-      <c r="B44" s="12" t="s">
+      <c r="G43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="55"/>
+      <c r="B44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="9">
         <v>305</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-    </row>
-    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="62"/>
-      <c r="B45" s="12" t="s">
+      <c r="G44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="55"/>
+      <c r="B45" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="9">
         <v>305</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-    </row>
-    <row r="46" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A46" s="62"/>
-      <c r="B46" s="12" t="s">
+      <c r="G45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A46" s="55"/>
+      <c r="B46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="9">
         <v>305</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-    </row>
-    <row r="47" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="62"/>
-      <c r="B47" s="12" t="s">
+      <c r="G46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="55"/>
+      <c r="B47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="9">
         <v>305</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-    </row>
-    <row r="48" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A48" s="62"/>
-      <c r="B48" s="12" t="s">
+      <c r="G47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A48" s="55"/>
+      <c r="B48" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="9">
         <v>305</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-    </row>
-    <row r="49" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="62"/>
-      <c r="B49" s="12" t="s">
+      <c r="G48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="55"/>
+      <c r="B49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="9">
         <v>305</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-    </row>
-    <row r="50" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="62"/>
-      <c r="B50" s="12" t="s">
+      <c r="G49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="55"/>
+      <c r="B50" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="9">
         <v>305</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-    </row>
-    <row r="51" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A51" s="62"/>
-      <c r="B51" s="12" t="s">
+      <c r="G50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A51" s="55"/>
+      <c r="B51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="9">
         <v>305</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-    </row>
-    <row r="52" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A52" s="62"/>
-      <c r="B52" s="12" t="s">
+      <c r="G51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A52" s="55"/>
+      <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="9">
         <v>305</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-    </row>
-    <row r="53" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A53" s="63"/>
-      <c r="B53" s="12" t="s">
+      <c r="G52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+    </row>
+    <row r="53" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="56"/>
+      <c r="B53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="9">
         <v>305</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-    </row>
-    <row r="54" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="52" t="s">
+      <c r="G53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+    </row>
+    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="9">
         <v>305</v>
       </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="12" t="s">
+      <c r="E54" s="42"/>
+      <c r="F54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-    </row>
-    <row r="55" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="64" t="s">
+      <c r="G54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+    </row>
+    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="9">
         <v>305</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-    </row>
-    <row r="56" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="65"/>
-      <c r="B56" s="12" t="s">
+      <c r="G55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+    </row>
+    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="58"/>
+      <c r="B56" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="9">
         <v>305</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-    </row>
-    <row r="57" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="65"/>
-      <c r="B57" s="12" t="s">
+      <c r="G56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+    </row>
+    <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="58"/>
+      <c r="B57" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="9">
         <v>305</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-    </row>
-    <row r="58" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="65"/>
-      <c r="B58" s="12" t="s">
+      <c r="G57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="58"/>
+      <c r="B58" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="9">
         <v>305</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-    </row>
-    <row r="59" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A59" s="65"/>
-      <c r="B59" s="12" t="s">
+      <c r="G58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+    </row>
+    <row r="59" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A59" s="58"/>
+      <c r="B59" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="9">
         <v>305</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-    </row>
-    <row r="60" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A60" s="66"/>
-      <c r="B60" s="12" t="s">
+      <c r="G59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+    </row>
+    <row r="60" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A60" s="59"/>
+      <c r="B60" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="9">
         <v>305</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-    </row>
-    <row r="61" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A61" s="52" t="s">
+      <c r="G60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+    </row>
+    <row r="61" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A61" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="9">
         <v>305</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-    </row>
-    <row r="62" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A62" s="52" t="s">
+      <c r="G61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+    </row>
+    <row r="62" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A62" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="9">
         <v>305</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-    </row>
-    <row r="63" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="52" t="s">
+      <c r="G62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+    </row>
+    <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="9">
         <v>305</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-    </row>
-    <row r="64" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="52" t="s">
+      <c r="G63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+    </row>
+    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="9">
         <v>305</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-    </row>
-    <row r="65" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="52" t="s">
+      <c r="G64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+    </row>
+    <row r="65" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="9">
         <v>305</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-    </row>
-    <row r="66" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A66" s="52" t="s">
+      <c r="G65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+    </row>
+    <row r="66" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A66" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="9">
         <v>305</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-    </row>
-    <row r="67" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="52" t="s">
+      <c r="G66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+    </row>
+    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="9">
         <v>305</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-    </row>
-    <row r="68" spans="1:32" s="9" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="73" t="s">
+      <c r="G67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+    </row>
+    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="74">
         <v>305</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="74" t="s">
+      <c r="E68" s="75"/>
+      <c r="F68" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-    </row>
-    <row r="69" spans="1:32" s="9" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="77" t="s">
+      <c r="G68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+    </row>
+    <row r="69" spans="1:32" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="79" t="s">
+      <c r="D69" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="80" t="s">
+      <c r="E69" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F69" s="78" t="s">
+      <c r="F69" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
+      <c r="G69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="70"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="9">
         <v>313</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="9">
         <v>313</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
-    </row>
-    <row r="72" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="52" t="s">
+      <c r="G71" s="4"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="9">
         <v>313</v>
       </c>
-      <c r="E72" s="47"/>
-      <c r="F72" s="12" t="s">
+      <c r="E72" s="42"/>
+      <c r="F72" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
-    </row>
-    <row r="73" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="52" t="s">
+      <c r="G72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+    </row>
+    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="9">
         <v>313</v>
       </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="12" t="s">
+      <c r="E73" s="42"/>
+      <c r="F73" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
-    </row>
-    <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="64" t="s">
+      <c r="G73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+    </row>
+    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="9">
         <v>313</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E74" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
-    </row>
-    <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="65"/>
-      <c r="B75" s="12" t="s">
+      <c r="G74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+    </row>
+    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="58"/>
+      <c r="B75" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="9">
         <v>313</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-    </row>
-    <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="65"/>
-      <c r="B76" s="12" t="s">
+      <c r="G75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+    </row>
+    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="58"/>
+      <c r="B76" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="9">
         <v>313</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
-    </row>
-    <row r="77" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="65"/>
-      <c r="B77" s="12" t="s">
+      <c r="G76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+    </row>
+    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="58"/>
+      <c r="B77" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="9">
         <v>313</v>
       </c>
-      <c r="E77" s="47" t="s">
+      <c r="E77" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
-    </row>
-    <row r="78" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="65"/>
-      <c r="B78" s="12" t="s">
+      <c r="G77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+    </row>
+    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="58"/>
+      <c r="B78" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="9">
         <v>313</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E78" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="8"/>
-    </row>
-    <row r="79" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="65"/>
-      <c r="B79" s="12" t="s">
+      <c r="G78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+    </row>
+    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="58"/>
+      <c r="B79" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="9">
         <v>313</v>
       </c>
-      <c r="E79" s="47" t="s">
+      <c r="E79" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="8"/>
-    </row>
-    <row r="80" spans="1:32" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A80" s="65"/>
-      <c r="B80" s="12" t="s">
+      <c r="G79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+    </row>
+    <row r="80" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A80" s="58"/>
+      <c r="B80" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="9">
         <v>313</v>
       </c>
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="8"/>
-    </row>
-    <row r="81" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A81" s="65"/>
-      <c r="B81" s="12" t="s">
+      <c r="G80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+    </row>
+    <row r="81" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A81" s="58"/>
+      <c r="B81" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="9">
         <v>313</v>
       </c>
-      <c r="E81" s="47" t="s">
+      <c r="E81" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="8"/>
-      <c r="AB81" s="8"/>
-    </row>
-    <row r="82" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A82" s="66"/>
-      <c r="B82" s="12" t="s">
+      <c r="G81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+    </row>
+    <row r="82" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A82" s="59"/>
+      <c r="B82" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="9">
         <v>313</v>
       </c>
-      <c r="E82" s="47" t="s">
+      <c r="E82" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="8"/>
-      <c r="AB82" s="8"/>
-    </row>
-    <row r="83" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="61" t="s">
+      <c r="G82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+    </row>
+    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="9">
         <v>313</v>
       </c>
-      <c r="E83" s="47" t="s">
+      <c r="E83" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="8"/>
-      <c r="AB83" s="8"/>
-    </row>
-    <row r="84" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="62"/>
-      <c r="B84" s="12" t="s">
+      <c r="G83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+    </row>
+    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="55"/>
+      <c r="B84" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="9">
         <v>313</v>
       </c>
-      <c r="E84" s="47" t="s">
+      <c r="E84" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="8"/>
-      <c r="AB84" s="8"/>
-    </row>
-    <row r="85" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="62"/>
-      <c r="B85" s="12" t="s">
+      <c r="G84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+    </row>
+    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="55"/>
+      <c r="B85" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="9">
         <v>313</v>
       </c>
-      <c r="E85" s="47" t="s">
+      <c r="E85" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="8"/>
-      <c r="AB85" s="8"/>
-    </row>
-    <row r="86" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="62"/>
-      <c r="B86" s="12" t="s">
+      <c r="G85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+    </row>
+    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="55"/>
+      <c r="B86" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="9">
         <v>313</v>
       </c>
-      <c r="E86" s="47" t="s">
+      <c r="E86" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="8"/>
-      <c r="AB86" s="8"/>
-    </row>
-    <row r="87" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A87" s="62"/>
-      <c r="B87" s="12" t="s">
+      <c r="G86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+    </row>
+    <row r="87" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A87" s="55"/>
+      <c r="B87" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="9">
         <v>313</v>
       </c>
-      <c r="E87" s="47" t="s">
+      <c r="E87" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="8"/>
-      <c r="AA87" s="8"/>
-      <c r="AB87" s="8"/>
-    </row>
-    <row r="88" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A88" s="62"/>
-      <c r="B88" s="12" t="s">
+      <c r="G87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+    </row>
+    <row r="88" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A88" s="55"/>
+      <c r="B88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="9">
         <v>313</v>
       </c>
-      <c r="E88" s="47" t="s">
+      <c r="E88" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="8"/>
-      <c r="AB88" s="8"/>
-    </row>
-    <row r="89" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="62"/>
-      <c r="B89" s="12" t="s">
+      <c r="G88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+    </row>
+    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="55"/>
+      <c r="B89" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="9">
         <v>313</v>
       </c>
-      <c r="E89" s="47" t="s">
+      <c r="E89" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="8"/>
-      <c r="AB89" s="8"/>
-    </row>
-    <row r="90" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A90" s="62"/>
-      <c r="B90" s="12" t="s">
+      <c r="G89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+    </row>
+    <row r="90" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A90" s="55"/>
+      <c r="B90" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="9">
         <v>313</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="8"/>
-      <c r="AB90" s="8"/>
-    </row>
-    <row r="91" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="63"/>
-      <c r="B91" s="12" t="s">
+      <c r="G90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+    </row>
+    <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="56"/>
+      <c r="B91" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="9">
         <v>313</v>
       </c>
-      <c r="E91" s="47" t="s">
+      <c r="E91" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="8"/>
-      <c r="AA91" s="8"/>
-      <c r="AB91" s="8"/>
-    </row>
-    <row r="92" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="52" t="s">
+      <c r="G91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+    </row>
+    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="9">
         <v>313</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="8"/>
-      <c r="AB92" s="8"/>
-    </row>
-    <row r="93" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A93" s="52" t="s">
+      <c r="G92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+    </row>
+    <row r="93" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A93" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="9">
         <v>313</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="E93" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="Y93" s="8"/>
-      <c r="Z93" s="8"/>
-      <c r="AA93" s="8"/>
-      <c r="AB93" s="8"/>
-    </row>
-    <row r="94" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="52" t="s">
+      <c r="G93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+    </row>
+    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="9">
         <v>313</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="8"/>
-      <c r="AB94" s="8"/>
-    </row>
-    <row r="95" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="52" t="s">
+      <c r="G94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+    </row>
+    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="9">
         <v>313</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="8"/>
-      <c r="AB95" s="8"/>
-    </row>
-    <row r="96" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A96" s="52" t="s">
+      <c r="G95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+    </row>
+    <row r="96" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A96" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="9">
         <v>313</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="8"/>
-      <c r="AB96" s="8"/>
-    </row>
-    <row r="97" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="52" t="s">
+      <c r="G96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+    </row>
+    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="9">
         <v>313</v>
       </c>
-      <c r="E97" s="47" t="s">
+      <c r="E97" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="8"/>
-      <c r="AB97" s="8"/>
-    </row>
-    <row r="98" spans="1:28" s="9" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A98" s="52" t="s">
+      <c r="G97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+    </row>
+    <row r="98" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A98" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="9">
         <v>313</v>
       </c>
-      <c r="E98" s="47" t="s">
+      <c r="E98" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="Y98" s="8"/>
-      <c r="Z98" s="8"/>
-      <c r="AA98" s="8"/>
-      <c r="AB98" s="8"/>
-    </row>
-    <row r="99" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A99" s="52" t="s">
+      <c r="G98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+    </row>
+    <row r="99" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A99" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="9">
         <v>313</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="Y99" s="8"/>
-      <c r="Z99" s="8"/>
-      <c r="AA99" s="8"/>
-      <c r="AB99" s="8"/>
-    </row>
-    <row r="100" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="52" t="s">
+      <c r="G99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+    </row>
+    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="9">
         <v>313</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="8"/>
-      <c r="AB100" s="8"/>
-    </row>
-    <row r="101" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A101" s="52" t="s">
+      <c r="G100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+    </row>
+    <row r="101" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A101" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="9">
         <v>313</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="8"/>
-      <c r="AB101" s="8"/>
-    </row>
-    <row r="102" spans="1:28" s="9" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A102" s="52" t="s">
+      <c r="G101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+    </row>
+    <row r="102" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A102" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="9">
         <v>313</v>
       </c>
-      <c r="E102" s="47" t="s">
+      <c r="E102" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="8"/>
-      <c r="AB102" s="8"/>
-    </row>
-    <row r="103" spans="1:28" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="73" t="s">
+      <c r="G102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+    </row>
+    <row r="103" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A103" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="C103" s="74" t="s">
+      <c r="C103" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="D103" s="75">
+      <c r="D103" s="74">
         <v>313</v>
       </c>
-      <c r="E103" s="76" t="s">
+      <c r="E103" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F103" s="74" t="s">
+      <c r="F103" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="8"/>
-      <c r="AB103" s="8"/>
-    </row>
-    <row r="104" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="72" t="s">
+      <c r="G103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+    </row>
+    <row r="104" spans="1:28" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="E104" s="55" t="s">
+      <c r="E104" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="F104" s="53" t="s">
+      <c r="F104" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="Y104" s="8"/>
-      <c r="Z104" s="8"/>
-      <c r="AA104" s="8"/>
-      <c r="AB104" s="8"/>
-    </row>
-    <row r="105" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="11"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="Y105" s="8"/>
-      <c r="Z105" s="8"/>
-      <c r="AA105" s="8"/>
-      <c r="AB105" s="8"/>
-    </row>
-    <row r="106" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="8"/>
-      <c r="AB106" s="8"/>
+      <c r="G104" s="70"/>
+      <c r="S104" s="70"/>
+      <c r="T104" s="70"/>
+      <c r="U104" s="70"/>
+      <c r="Y104" s="70"/>
+      <c r="Z104" s="70"/>
+      <c r="AA104" s="70"/>
+      <c r="AB104" s="70"/>
+    </row>
+    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+    </row>
+    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B109" s="9"/>
+      <c r="B109" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1B750-C255-4E73-9817-0C56BC3ED58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D7016-F92C-46FC-84A4-A6B1F5481FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2160,7 +2160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,6 +2311,33 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2340,54 +2367,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2766,30 +2745,30 @@
   <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B1" sqref="B1:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="52.09765625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="14"/>
+    <col min="1" max="1" width="4.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="52.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="50" t="s">
+    <row r="1" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="2:17" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="2:17" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
       <c r="C3" s="37" t="s">
         <v>15</v>
@@ -2805,7 +2784,7 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
@@ -2831,7 +2810,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
@@ -2850,7 +2829,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27">
         <f t="shared" ref="C6:C9" si="0">ROW(C6)-4</f>
@@ -2867,7 +2846,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="27">
         <f t="shared" si="0"/>
@@ -2883,7 +2862,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="27">
         <f t="shared" si="0"/>
@@ -2899,7 +2878,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="26"/>
       <c r="C9" s="27">
         <f t="shared" si="0"/>
@@ -2915,97 +2894,97 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -3027,47 +3006,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.296875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" style="6" customWidth="1"/>
-    <col min="11" max="18" width="15.69921875" style="6" customWidth="1"/>
-    <col min="19" max="21" width="15.69921875" style="10" customWidth="1"/>
-    <col min="22" max="23" width="15.69921875" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.69921875" style="6" customWidth="1"/>
-    <col min="25" max="28" width="15.69921875" style="10" customWidth="1"/>
-    <col min="29" max="32" width="18.69921875" style="6" customWidth="1"/>
-    <col min="33" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.25" style="42" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="10" customWidth="1"/>
+    <col min="8" max="9" width="15.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="6" customWidth="1"/>
+    <col min="11" max="18" width="15.75" style="6" customWidth="1"/>
+    <col min="19" max="21" width="15.75" style="10" customWidth="1"/>
+    <col min="22" max="23" width="15.75" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.75" style="6" customWidth="1"/>
+    <col min="25" max="28" width="15.75" style="10" customWidth="1"/>
+    <col min="29" max="32" width="18.75" style="6" customWidth="1"/>
+    <col min="33" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="54" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="1"/>
@@ -3097,53 +3076,53 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" s="72" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>396</v>
       </c>
@@ -3186,7 +3165,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>166</v>
       </c>
@@ -3227,7 +3206,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>74</v>
       </c>
@@ -3250,8 +3229,8 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>395</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3278,8 +3257,8 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58"/>
+    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
       <c r="B7" s="8" t="s">
         <v>302</v>
       </c>
@@ -3304,8 +3283,8 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
+    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
       <c r="B8" s="8" t="s">
         <v>303</v>
       </c>
@@ -3330,8 +3309,8 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
       <c r="B9" s="8" t="s">
         <v>304</v>
       </c>
@@ -3356,8 +3335,8 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
       <c r="B10" s="8" t="s">
         <v>305</v>
       </c>
@@ -3382,8 +3361,8 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
       <c r="B11" s="8" t="s">
         <v>306</v>
       </c>
@@ -3408,8 +3387,8 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>377</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3436,8 +3415,8 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
       <c r="B13" s="8" t="s">
         <v>308</v>
       </c>
@@ -3462,8 +3441,8 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
       <c r="B14" s="8" t="s">
         <v>309</v>
       </c>
@@ -3488,8 +3467,8 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
       <c r="B15" s="8" t="s">
         <v>310</v>
       </c>
@@ -3514,8 +3493,8 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
       <c r="B16" s="8" t="s">
         <v>311</v>
       </c>
@@ -3540,8 +3519,8 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
       <c r="B17" s="8" t="s">
         <v>312</v>
       </c>
@@ -3566,8 +3545,8 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
         <v>383</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -3594,8 +3573,8 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="64"/>
       <c r="B19" s="8" t="s">
         <v>314</v>
       </c>
@@ -3620,8 +3599,8 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="64"/>
       <c r="B20" s="8" t="s">
         <v>315</v>
       </c>
@@ -3646,8 +3625,8 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
       <c r="B21" s="8" t="s">
         <v>316</v>
       </c>
@@ -3672,8 +3651,8 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="64"/>
       <c r="B22" s="8" t="s">
         <v>317</v>
       </c>
@@ -3698,8 +3677,8 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A23" s="56"/>
+    <row r="23" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
       <c r="B23" s="8" t="s">
         <v>318</v>
       </c>
@@ -3724,7 +3703,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>372</v>
       </c>
@@ -3752,7 +3731,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>373</v>
       </c>
@@ -3780,7 +3759,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>374</v>
       </c>
@@ -3808,7 +3787,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>375</v>
       </c>
@@ -3836,7 +3815,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>361</v>
       </c>
@@ -3864,7 +3843,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>359</v>
       </c>
@@ -3892,7 +3871,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>136</v>
       </c>
@@ -3920,7 +3899,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>137</v>
       </c>
@@ -3948,7 +3927,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>363</v>
       </c>
@@ -3976,23 +3955,23 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:32" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="9">
         <v>113</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="8" t="s">
         <v>358</v>
       </c>
       <c r="G33" s="4"/>
@@ -4004,35 +3983,35 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:32" s="71" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65" t="s">
+    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="70"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="G34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>84</v>
       </c>
@@ -4078,7 +4057,7 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>78</v>
       </c>
@@ -4121,7 +4100,7 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>77</v>
       </c>
@@ -4147,7 +4126,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>74</v>
       </c>
@@ -4173,7 +4152,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>85</v>
       </c>
@@ -4199,8 +4178,8 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="54" t="s">
+    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63" t="s">
         <v>131</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -4227,8 +4206,8 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="55"/>
+    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="64"/>
       <c r="B41" s="8" t="s">
         <v>100</v>
       </c>
@@ -4253,8 +4232,8 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="55"/>
+    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
       <c r="B42" s="8" t="s">
         <v>101</v>
       </c>
@@ -4279,8 +4258,8 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="64"/>
       <c r="B43" s="8" t="s">
         <v>102</v>
       </c>
@@ -4305,8 +4284,8 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="64"/>
       <c r="B44" s="8" t="s">
         <v>103</v>
       </c>
@@ -4331,8 +4310,8 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="55"/>
+    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="64"/>
       <c r="B45" s="8" t="s">
         <v>104</v>
       </c>
@@ -4357,8 +4336,8 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A46" s="55"/>
+    <row r="46" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="64"/>
       <c r="B46" s="8" t="s">
         <v>105</v>
       </c>
@@ -4383,8 +4362,8 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="55"/>
+    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="64"/>
       <c r="B47" s="8" t="s">
         <v>106</v>
       </c>
@@ -4409,8 +4388,8 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A48" s="55"/>
+    <row r="48" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="64"/>
       <c r="B48" s="8" t="s">
         <v>107</v>
       </c>
@@ -4435,8 +4414,8 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="55"/>
+    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="64"/>
       <c r="B49" s="8" t="s">
         <v>108</v>
       </c>
@@ -4461,8 +4440,8 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="55"/>
+    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="64"/>
       <c r="B50" s="8" t="s">
         <v>109</v>
       </c>
@@ -4487,8 +4466,8 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A51" s="55"/>
+    <row r="51" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="64"/>
       <c r="B51" s="8" t="s">
         <v>110</v>
       </c>
@@ -4513,8 +4492,8 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A52" s="55"/>
+    <row r="52" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="64"/>
       <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
@@ -4539,8 +4518,8 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A53" s="56"/>
+    <row r="53" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="65"/>
       <c r="B53" s="8" t="s">
         <v>112</v>
       </c>
@@ -4565,7 +4544,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>88</v>
       </c>
@@ -4591,8 +4570,8 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="57" t="s">
+    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="66" t="s">
         <v>132</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -4619,8 +4598,8 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="58"/>
+    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
       <c r="B56" s="8" t="s">
         <v>115</v>
       </c>
@@ -4645,8 +4624,8 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="58"/>
+    <row r="57" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
       <c r="B57" s="8" t="s">
         <v>116</v>
       </c>
@@ -4671,8 +4650,8 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="58"/>
+    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="67"/>
       <c r="B58" s="8" t="s">
         <v>117</v>
       </c>
@@ -4697,8 +4676,8 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A59" s="58"/>
+    <row r="59" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="67"/>
       <c r="B59" s="8" t="s">
         <v>118</v>
       </c>
@@ -4723,8 +4702,8 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A60" s="59"/>
+    <row r="60" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="68"/>
       <c r="B60" s="8" t="s">
         <v>119</v>
       </c>
@@ -4749,7 +4728,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>136</v>
       </c>
@@ -4777,7 +4756,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>137</v>
       </c>
@@ -4805,7 +4784,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>91</v>
       </c>
@@ -4833,7 +4812,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>92</v>
       </c>
@@ -4861,7 +4840,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>89</v>
       </c>
@@ -4889,7 +4868,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>90</v>
       </c>
@@ -4917,7 +4896,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>133</v>
       </c>
@@ -4945,21 +4924,21 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="9">
         <v>305</v>
       </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="73" t="s">
+      <c r="E68" s="42"/>
+      <c r="F68" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G68" s="4"/>
@@ -4971,35 +4950,35 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:32" s="71" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="65" t="s">
+    <row r="69" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C69" s="66" t="s">
+      <c r="C69" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="69" t="s">
+      <c r="E69" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="F69" s="66" t="s">
+      <c r="F69" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="70"/>
-      <c r="AA69" s="70"/>
-      <c r="AB69" s="70"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="G69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>167</v>
       </c>
@@ -5045,7 +5024,7 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>166</v>
       </c>
@@ -5088,7 +5067,7 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
     </row>
-    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>259</v>
       </c>
@@ -5114,7 +5093,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>74</v>
       </c>
@@ -5140,8 +5119,8 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="57" t="s">
+    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="66" t="s">
         <v>233</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -5168,8 +5147,8 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="58"/>
+    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="67"/>
       <c r="B75" s="8" t="s">
         <v>174</v>
       </c>
@@ -5194,8 +5173,8 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="58"/>
+    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="67"/>
       <c r="B76" s="8" t="s">
         <v>175</v>
       </c>
@@ -5220,8 +5199,8 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="58"/>
+    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="67"/>
       <c r="B77" s="8" t="s">
         <v>176</v>
       </c>
@@ -5246,8 +5225,8 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="58"/>
+    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="67"/>
       <c r="B78" s="8" t="s">
         <v>177</v>
       </c>
@@ -5272,8 +5251,8 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="58"/>
+    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="67"/>
       <c r="B79" s="8" t="s">
         <v>178</v>
       </c>
@@ -5298,8 +5277,8 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A80" s="58"/>
+    <row r="80" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
       <c r="B80" s="8" t="s">
         <v>179</v>
       </c>
@@ -5324,8 +5303,8 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A81" s="58"/>
+    <row r="81" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="67"/>
       <c r="B81" s="8" t="s">
         <v>180</v>
       </c>
@@ -5350,8 +5329,8 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A82" s="59"/>
+    <row r="82" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="68"/>
       <c r="B82" s="8" t="s">
         <v>181</v>
       </c>
@@ -5376,8 +5355,8 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="54" t="s">
+    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="63" t="s">
         <v>234</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -5404,8 +5383,8 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="55"/>
+    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="64"/>
       <c r="B84" s="8" t="s">
         <v>183</v>
       </c>
@@ -5430,8 +5409,8 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="55"/>
+    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="64"/>
       <c r="B85" s="8" t="s">
         <v>184</v>
       </c>
@@ -5456,8 +5435,8 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="55"/>
+    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="64"/>
       <c r="B86" s="8" t="s">
         <v>185</v>
       </c>
@@ -5482,8 +5461,8 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A87" s="55"/>
+    <row r="87" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="64"/>
       <c r="B87" s="8" t="s">
         <v>186</v>
       </c>
@@ -5508,8 +5487,8 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A88" s="55"/>
+    <row r="88" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="64"/>
       <c r="B88" s="8" t="s">
         <v>187</v>
       </c>
@@ -5534,8 +5513,8 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="55"/>
+    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="64"/>
       <c r="B89" s="8" t="s">
         <v>188</v>
       </c>
@@ -5560,8 +5539,8 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A90" s="55"/>
+    <row r="90" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="64"/>
       <c r="B90" s="8" t="s">
         <v>189</v>
       </c>
@@ -5586,8 +5565,8 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="56"/>
+    <row r="91" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="65"/>
       <c r="B91" s="8" t="s">
         <v>190</v>
       </c>
@@ -5612,7 +5591,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>136</v>
       </c>
@@ -5640,7 +5619,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>137</v>
       </c>
@@ -5668,7 +5647,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>265</v>
       </c>
@@ -5696,7 +5675,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>262</v>
       </c>
@@ -5724,7 +5703,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>263</v>
       </c>
@@ -5752,7 +5731,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
         <v>256</v>
       </c>
@@ -5780,7 +5759,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>264</v>
       </c>
@@ -5808,7 +5787,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
         <v>243</v>
       </c>
@@ -5836,7 +5815,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>245</v>
       </c>
@@ -5864,7 +5843,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>89</v>
       </c>
@@ -5892,7 +5871,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>90</v>
       </c>
@@ -5920,23 +5899,23 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A103" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C103" s="73" t="s">
+      <c r="C103" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="9">
         <v>313</v>
       </c>
-      <c r="E103" s="75" t="s">
+      <c r="E103" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="F103" s="73" t="s">
+      <c r="F103" s="8" t="s">
         <v>253</v>
       </c>
       <c r="G103" s="4"/>
@@ -5948,35 +5927,35 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="1:28" s="71" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="65" t="s">
+    <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B104" s="66" t="s">
+      <c r="B104" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C104" s="66" t="s">
+      <c r="C104" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="E104" s="69" t="s">
+      <c r="E104" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="G104" s="70"/>
-      <c r="S104" s="70"/>
-      <c r="T104" s="70"/>
-      <c r="U104" s="70"/>
-      <c r="Y104" s="70"/>
-      <c r="Z104" s="70"/>
-      <c r="AA104" s="70"/>
-      <c r="AB104" s="70"/>
-    </row>
-    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+    </row>
+    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -5991,7 +5970,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -6007,7 +5986,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D7016-F92C-46FC-84A4-A6B1F5481FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB5E43F-1AC6-457D-A9F9-551CA6507867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -330,10 +330,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획용 (간단한 설명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1634,6 +1630,10 @@
   </si>
   <si>
     <t>선풍참혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 스킬 명 (실제 데이터에는 적용 X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2745,30 +2745,30 @@
   <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G25"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="52.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="14"/>
+    <col min="1" max="1" width="4.19921875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="52.09765625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="2:17" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B3" s="36"/>
       <c r="C3" s="37" t="s">
         <v>15</v>
@@ -2784,19 +2784,19 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="13"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="20"/>
@@ -2810,7 +2810,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
@@ -2819,17 +2819,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="26"/>
       <c r="C6" s="27">
         <f t="shared" ref="C6:C9" si="0">ROW(C6)-4</f>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="26"/>
       <c r="C7" s="27">
         <f t="shared" si="0"/>
@@ -2859,26 +2859,26 @@
         <v>17</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="26"/>
       <c r="C8" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="26"/>
       <c r="C9" s="27">
         <f t="shared" si="0"/>
@@ -2891,100 +2891,100 @@
         <v>29</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -3006,36 +3006,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.25" style="42" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="10" customWidth="1"/>
-    <col min="8" max="9" width="15.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="6" customWidth="1"/>
-    <col min="11" max="18" width="15.75" style="6" customWidth="1"/>
-    <col min="19" max="21" width="15.75" style="10" customWidth="1"/>
-    <col min="22" max="23" width="15.75" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.75" style="6" customWidth="1"/>
-    <col min="25" max="28" width="15.75" style="10" customWidth="1"/>
-    <col min="29" max="32" width="18.75" style="6" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="6"/>
+    <col min="1" max="1" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.19921875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="10" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" style="6" customWidth="1"/>
+    <col min="11" max="18" width="15.69921875" style="6" customWidth="1"/>
+    <col min="19" max="21" width="15.69921875" style="10" customWidth="1"/>
+    <col min="22" max="23" width="15.69921875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.69921875" style="6" customWidth="1"/>
+    <col min="25" max="28" width="15.69921875" style="10" customWidth="1"/>
+    <col min="29" max="32" width="18.69921875" style="6" customWidth="1"/>
+    <col min="33" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>7</v>
@@ -3044,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>18</v>
@@ -3076,24 +3076,24 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
@@ -3122,12 +3122,12 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>80</v>
@@ -3165,19 +3165,19 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9">
         <v>113</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -3206,19 +3206,19 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D5" s="9">
         <v>113</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G5" s="4"/>
       <c r="S5" s="4"/>
@@ -3229,24 +3229,24 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="9">
         <v>113</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G6" s="4"/>
       <c r="S6" s="4"/>
@@ -3257,22 +3257,22 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="67"/>
       <c r="B7" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D7" s="9">
         <v>113</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="4"/>
       <c r="S7" s="4"/>
@@ -3283,22 +3283,22 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="67"/>
       <c r="B8" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D8" s="9">
         <v>113</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="4"/>
       <c r="S8" s="4"/>
@@ -3309,22 +3309,22 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="67"/>
       <c r="B9" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="9">
         <v>113</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G9" s="4"/>
       <c r="S9" s="4"/>
@@ -3335,22 +3335,22 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="67"/>
       <c r="B10" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" s="9">
         <v>113</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" s="4"/>
       <c r="S10" s="4"/>
@@ -3361,22 +3361,22 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A11" s="68"/>
       <c r="B11" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="9">
         <v>113</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G11" s="4"/>
       <c r="S11" s="4"/>
@@ -3387,24 +3387,24 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D12" s="9">
         <v>113</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G12" s="4"/>
       <c r="S12" s="4"/>
@@ -3415,22 +3415,22 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="64"/>
       <c r="B13" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D13" s="9">
         <v>113</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="4"/>
       <c r="S13" s="4"/>
@@ -3441,22 +3441,22 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A14" s="64"/>
       <c r="B14" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" s="9">
         <v>113</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="4"/>
       <c r="S14" s="4"/>
@@ -3467,22 +3467,22 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="64"/>
       <c r="B15" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="9">
         <v>113</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G15" s="4"/>
       <c r="S15" s="4"/>
@@ -3493,22 +3493,22 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A16" s="64"/>
       <c r="B16" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D16" s="9">
         <v>113</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G16" s="4"/>
       <c r="S16" s="4"/>
@@ -3519,22 +3519,22 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A17" s="65"/>
       <c r="B17" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D17" s="9">
         <v>113</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G17" s="4"/>
       <c r="S17" s="4"/>
@@ -3545,24 +3545,24 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D18" s="9">
         <v>113</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G18" s="4"/>
       <c r="S18" s="4"/>
@@ -3573,22 +3573,22 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A19" s="64"/>
       <c r="B19" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="9">
         <v>113</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G19" s="4"/>
       <c r="S19" s="4"/>
@@ -3599,22 +3599,22 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A20" s="64"/>
       <c r="B20" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D20" s="9">
         <v>113</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G20" s="4"/>
       <c r="S20" s="4"/>
@@ -3625,22 +3625,22 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A21" s="64"/>
       <c r="B21" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D21" s="9">
         <v>113</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G21" s="4"/>
       <c r="S21" s="4"/>
@@ -3651,22 +3651,22 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A22" s="64"/>
       <c r="B22" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D22" s="9">
         <v>113</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G22" s="4"/>
       <c r="S22" s="4"/>
@@ -3677,22 +3677,22 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A23" s="65"/>
       <c r="B23" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="9">
         <v>113</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G23" s="4"/>
       <c r="S23" s="4"/>
@@ -3703,24 +3703,24 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A24" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="9">
         <v>113</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G24" s="4"/>
       <c r="S24" s="4"/>
@@ -3731,24 +3731,24 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D25" s="9">
         <v>113</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G25" s="4"/>
       <c r="S25" s="4"/>
@@ -3759,24 +3759,24 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D26" s="9">
         <v>113</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G26" s="4"/>
       <c r="S26" s="4"/>
@@ -3787,24 +3787,24 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D27" s="9">
         <v>113</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G27" s="4"/>
       <c r="S27" s="4"/>
@@ -3815,24 +3815,24 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D28" s="9">
         <v>113</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G28" s="4"/>
       <c r="S28" s="4"/>
@@ -3843,24 +3843,24 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D29" s="9">
         <v>113</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G29" s="4"/>
       <c r="S29" s="4"/>
@@ -3871,24 +3871,24 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D30" s="9">
         <v>113</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G30" s="4"/>
       <c r="S30" s="4"/>
@@ -3899,24 +3899,24 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" s="9">
         <v>113</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G31" s="4"/>
       <c r="S31" s="4"/>
@@ -3927,24 +3927,24 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="D32" s="9">
         <v>113</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G32" s="4"/>
       <c r="S32" s="4"/>
@@ -3955,24 +3955,24 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:32" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
       <c r="A33" s="49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D33" s="9">
         <v>113</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G33" s="4"/>
       <c r="S33" s="4"/>
@@ -3983,24 +3983,24 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G34" s="4"/>
       <c r="S34" s="4"/>
@@ -4011,12 +4011,12 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>80</v>
@@ -4057,15 +4057,15 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="9">
         <v>305</v>
@@ -4100,15 +4100,15 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="47" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="9">
         <v>305</v>
@@ -4126,12 +4126,12 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>74</v>
@@ -4152,15 +4152,15 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="D39" s="9">
         <v>305</v>
@@ -4178,12 +4178,12 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>31</v>
@@ -4192,7 +4192,7 @@
         <v>305</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>32</v>
@@ -4206,10 +4206,10 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="64"/>
       <c r="B41" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>33</v>
@@ -4218,7 +4218,7 @@
         <v>305</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>50</v>
@@ -4232,10 +4232,10 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="64"/>
       <c r="B42" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>34</v>
@@ -4244,7 +4244,7 @@
         <v>305</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>51</v>
@@ -4258,10 +4258,10 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A43" s="64"/>
       <c r="B43" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>35</v>
@@ -4270,7 +4270,7 @@
         <v>305</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>52</v>
@@ -4284,10 +4284,10 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="64"/>
       <c r="B44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>36</v>
@@ -4296,7 +4296,7 @@
         <v>305</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>53</v>
@@ -4310,10 +4310,10 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="64"/>
       <c r="B45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>37</v>
@@ -4322,7 +4322,7 @@
         <v>305</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>54</v>
@@ -4336,10 +4336,10 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A46" s="64"/>
       <c r="B46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>38</v>
@@ -4348,7 +4348,7 @@
         <v>305</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>55</v>
@@ -4362,10 +4362,10 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="64"/>
       <c r="B47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>39</v>
@@ -4374,7 +4374,7 @@
         <v>305</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>56</v>
@@ -4388,10 +4388,10 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A48" s="64"/>
       <c r="B48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>40</v>
@@ -4400,7 +4400,7 @@
         <v>305</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>57</v>
@@ -4414,10 +4414,10 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="64"/>
       <c r="B49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>41</v>
@@ -4426,7 +4426,7 @@
         <v>305</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>58</v>
@@ -4440,10 +4440,10 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="64"/>
       <c r="B50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>14</v>
@@ -4452,7 +4452,7 @@
         <v>305</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>24</v>
@@ -4466,19 +4466,19 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A51" s="64"/>
       <c r="B51" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D51" s="9">
         <v>305</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>59</v>
@@ -4492,10 +4492,10 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A52" s="64"/>
       <c r="B52" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>42</v>
@@ -4504,7 +4504,7 @@
         <v>305</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>60</v>
@@ -4518,10 +4518,10 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A53" s="65"/>
       <c r="B53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>5</v>
@@ -4530,7 +4530,7 @@
         <v>305</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>21</v>
@@ -4544,15 +4544,15 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="9">
         <v>305</v>
@@ -4570,12 +4570,12 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>69</v>
@@ -4584,7 +4584,7 @@
         <v>305</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>61</v>
@@ -4598,10 +4598,10 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="67"/>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>43</v>
@@ -4610,7 +4610,7 @@
         <v>305</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>62</v>
@@ -4624,10 +4624,10 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="67"/>
       <c r="B57" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>44</v>
@@ -4636,7 +4636,7 @@
         <v>305</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>63</v>
@@ -4650,10 +4650,10 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="67"/>
       <c r="B58" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>13</v>
@@ -4662,7 +4662,7 @@
         <v>305</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>23</v>
@@ -4676,10 +4676,10 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A59" s="67"/>
       <c r="B59" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>45</v>
@@ -4688,7 +4688,7 @@
         <v>305</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>64</v>
@@ -4702,10 +4702,10 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A60" s="68"/>
       <c r="B60" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>6</v>
@@ -4714,7 +4714,7 @@
         <v>305</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>22</v>
@@ -4728,12 +4728,12 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A61" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>3</v>
@@ -4745,7 +4745,7 @@
         <v>20</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="4"/>
       <c r="S61" s="4"/>
@@ -4756,12 +4756,12 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A62" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>4</v>
@@ -4770,10 +4770,10 @@
         <v>305</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62" s="4"/>
       <c r="S62" s="4"/>
@@ -4784,12 +4784,12 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>46</v>
@@ -4798,7 +4798,7 @@
         <v>305</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>65</v>
@@ -4812,12 +4812,12 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>47</v>
@@ -4826,7 +4826,7 @@
         <v>305</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>66</v>
@@ -4840,12 +4840,12 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>48</v>
@@ -4854,7 +4854,7 @@
         <v>305</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>67</v>
@@ -4868,12 +4868,12 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A66" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>49</v>
@@ -4882,7 +4882,7 @@
         <v>305</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>68</v>
@@ -4896,12 +4896,12 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>71</v>
@@ -4910,7 +4910,7 @@
         <v>305</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>70</v>
@@ -4924,12 +4924,12 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>73</v>
@@ -4950,24 +4950,24 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E69" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G69" s="4"/>
       <c r="S69" s="4"/>
@@ -4978,12 +4978,12 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A70" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>80</v>
@@ -5024,15 +5024,15 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A71" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D71" s="9">
         <v>313</v>
@@ -5067,22 +5067,22 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
     </row>
-    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="D72" s="9">
         <v>313</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G72" s="4"/>
       <c r="S72" s="4"/>
@@ -5093,12 +5093,12 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>74</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G73" s="4"/>
       <c r="S73" s="4"/>
@@ -5119,24 +5119,24 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="9">
         <v>313</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G74" s="4"/>
       <c r="S74" s="4"/>
@@ -5147,22 +5147,22 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="67"/>
       <c r="B75" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="9">
         <v>313</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G75" s="4"/>
       <c r="S75" s="4"/>
@@ -5173,22 +5173,22 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="67"/>
       <c r="B76" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" s="9">
         <v>313</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G76" s="4"/>
       <c r="S76" s="4"/>
@@ -5199,22 +5199,22 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="67"/>
       <c r="B77" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" s="9">
         <v>313</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G77" s="4"/>
       <c r="S77" s="4"/>
@@ -5225,22 +5225,22 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="67"/>
       <c r="B78" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="9">
         <v>313</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G78" s="4"/>
       <c r="S78" s="4"/>
@@ -5251,22 +5251,22 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="67"/>
       <c r="B79" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="9">
         <v>313</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G79" s="4"/>
       <c r="S79" s="4"/>
@@ -5277,22 +5277,22 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A80" s="67"/>
       <c r="B80" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="9">
         <v>313</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G80" s="4"/>
       <c r="S80" s="4"/>
@@ -5303,22 +5303,22 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A81" s="67"/>
       <c r="B81" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="9">
         <v>313</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G81" s="4"/>
       <c r="S81" s="4"/>
@@ -5329,22 +5329,22 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A82" s="68"/>
       <c r="B82" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="9">
         <v>313</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G82" s="4"/>
       <c r="S82" s="4"/>
@@ -5355,24 +5355,24 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="9">
         <v>313</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G83" s="4"/>
       <c r="S83" s="4"/>
@@ -5383,22 +5383,22 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="64"/>
       <c r="B84" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="9">
         <v>313</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G84" s="4"/>
       <c r="S84" s="4"/>
@@ -5409,22 +5409,22 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="64"/>
       <c r="B85" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D85" s="9">
         <v>313</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G85" s="4"/>
       <c r="S85" s="4"/>
@@ -5435,22 +5435,22 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="64"/>
       <c r="B86" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="9">
         <v>313</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G86" s="4"/>
       <c r="S86" s="4"/>
@@ -5461,22 +5461,22 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A87" s="64"/>
       <c r="B87" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="9">
         <v>313</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G87" s="4"/>
       <c r="S87" s="4"/>
@@ -5487,22 +5487,22 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A88" s="64"/>
       <c r="B88" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88" s="9">
         <v>313</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G88" s="4"/>
       <c r="S88" s="4"/>
@@ -5513,22 +5513,22 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="64"/>
       <c r="B89" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D89" s="9">
         <v>313</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G89" s="4"/>
       <c r="S89" s="4"/>
@@ -5539,22 +5539,22 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A90" s="64"/>
       <c r="B90" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D90" s="9">
         <v>313</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G90" s="4"/>
       <c r="S90" s="4"/>
@@ -5565,22 +5565,22 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="65"/>
       <c r="B91" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D91" s="9">
         <v>313</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G91" s="4"/>
       <c r="S91" s="4"/>
@@ -5591,12 +5591,12 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>10</v>
@@ -5605,7 +5605,7 @@
         <v>313</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>26</v>
@@ -5619,12 +5619,12 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A93" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>9</v>
@@ -5633,7 +5633,7 @@
         <v>313</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>25</v>
@@ -5647,24 +5647,24 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="9">
         <v>313</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G94" s="4"/>
       <c r="S94" s="4"/>
@@ -5675,21 +5675,21 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="9">
         <v>313</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>28</v>
@@ -5703,12 +5703,12 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A96" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>12</v>
@@ -5717,7 +5717,7 @@
         <v>313</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>27</v>
@@ -5731,12 +5731,12 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>80</v>
@@ -5759,12 +5759,12 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A98" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>11</v>
@@ -5773,10 +5773,10 @@
         <v>313</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G98" s="4"/>
       <c r="S98" s="4"/>
@@ -5787,24 +5787,24 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A99" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D99" s="9">
         <v>313</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G99" s="4"/>
       <c r="S99" s="4"/>
@@ -5815,24 +5815,24 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D100" s="9">
         <v>313</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G100" s="4"/>
       <c r="S100" s="4"/>
@@ -5843,24 +5843,24 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A101" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D101" s="9">
         <v>313</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G101" s="4"/>
       <c r="S101" s="4"/>
@@ -5871,24 +5871,24 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A102" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D102" s="9">
         <v>313</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G102" s="4"/>
       <c r="S102" s="4"/>
@@ -5899,24 +5899,24 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A103" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D103" s="9">
         <v>313</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G103" s="4"/>
       <c r="S103" s="4"/>
@@ -5927,24 +5927,24 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E104" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F104" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G104" s="4"/>
       <c r="S104" s="4"/>
@@ -5955,7 +5955,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -5970,7 +5970,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -5986,7 +5986,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B109" s="5"/>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table(데이터수정_이동기,기상기설명채우기 등).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20.DESKTOP-SELDRMC\OneDrive\바탕 화면\진선\기획\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB5E43F-1AC6-457D-A9F9-551CA6507867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFE276C-0A0D-4EF0-934D-393DE66D11BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-14505" yWindow="135" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="426">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2748,27 +2748,27 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="52.09765625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="14"/>
+    <col min="1" max="1" width="4.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="52.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="2:17" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
       <c r="C3" s="37" t="s">
         <v>15</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="16" t="s">
         <v>80</v>
@@ -2810,7 +2810,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="27">
         <f t="shared" ref="C6:C9" si="0">ROW(C6)-4</f>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="27">
         <f t="shared" si="0"/>
@@ -2862,7 +2862,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="27">
         <f t="shared" si="0"/>
@@ -2878,7 +2878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="26"/>
       <c r="C9" s="27">
         <f t="shared" si="0"/>
@@ -2894,97 +2894,97 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -3007,30 +3007,30 @@
   <dimension ref="A1:AF109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.19921875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" style="6" customWidth="1"/>
-    <col min="11" max="18" width="15.69921875" style="6" customWidth="1"/>
-    <col min="19" max="21" width="15.69921875" style="10" customWidth="1"/>
-    <col min="22" max="23" width="15.69921875" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.69921875" style="6" customWidth="1"/>
-    <col min="25" max="28" width="15.69921875" style="10" customWidth="1"/>
-    <col min="29" max="32" width="18.69921875" style="6" customWidth="1"/>
-    <col min="33" max="16384" width="8.69921875" style="6"/>
+    <col min="1" max="1" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.25" style="42" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="10" customWidth="1"/>
+    <col min="8" max="9" width="15.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="6" customWidth="1"/>
+    <col min="11" max="18" width="15.75" style="6" customWidth="1"/>
+    <col min="19" max="21" width="15.75" style="10" customWidth="1"/>
+    <col min="22" max="23" width="15.75" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.75" style="6" customWidth="1"/>
+    <col min="25" max="28" width="15.75" style="10" customWidth="1"/>
+    <col min="29" max="32" width="18.75" style="6" customWidth="1"/>
+    <col min="33" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>366</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>294</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>395</v>
       </c>
@@ -3134,6 +3134,9 @@
       </c>
       <c r="D3" s="9">
         <v>113</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>80</v>
@@ -3165,7 +3168,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>165</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>74</v>
       </c>
@@ -3229,7 +3232,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>394</v>
       </c>
@@ -3257,7 +3260,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67"/>
       <c r="B7" s="8" t="s">
         <v>301</v>
@@ -3283,7 +3286,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67"/>
       <c r="B8" s="8" t="s">
         <v>302</v>
@@ -3309,7 +3312,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A9" s="67"/>
       <c r="B9" s="8" t="s">
         <v>303</v>
@@ -3335,7 +3338,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="8" t="s">
         <v>304</v>
@@ -3361,7 +3364,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A11" s="68"/>
       <c r="B11" s="8" t="s">
         <v>305</v>
@@ -3387,7 +3390,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
         <v>376</v>
       </c>
@@ -3415,7 +3418,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="B13" s="8" t="s">
         <v>307</v>
@@ -3441,7 +3444,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
       <c r="B14" s="8" t="s">
         <v>308</v>
@@ -3467,7 +3470,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="8" t="s">
         <v>309</v>
@@ -3493,7 +3496,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="B16" s="8" t="s">
         <v>310</v>
@@ -3519,7 +3522,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="8" t="s">
         <v>311</v>
@@ -3545,7 +3548,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>382</v>
       </c>
@@ -3573,7 +3576,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="B19" s="8" t="s">
         <v>313</v>
@@ -3599,7 +3602,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="B20" s="8" t="s">
         <v>314</v>
@@ -3625,7 +3628,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="B21" s="8" t="s">
         <v>315</v>
@@ -3651,7 +3654,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="B22" s="8" t="s">
         <v>316</v>
@@ -3677,7 +3680,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="8" t="s">
         <v>317</v>
@@ -3703,7 +3706,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>371</v>
       </c>
@@ -3731,7 +3734,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>372</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>373</v>
       </c>
@@ -3787,7 +3790,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>374</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>360</v>
       </c>
@@ -3843,7 +3846,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>358</v>
       </c>
@@ -3871,7 +3874,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>135</v>
       </c>
@@ -3899,7 +3902,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>136</v>
       </c>
@@ -3927,7 +3930,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>362</v>
       </c>
@@ -3955,7 +3958,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:32" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>362</v>
       </c>
@@ -3983,7 +3986,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>294</v>
       </c>
@@ -4011,7 +4014,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>83</v>
       </c>
@@ -4057,7 +4060,7 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>78</v>
       </c>
@@ -4100,7 +4103,7 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>77</v>
       </c>
@@ -4126,7 +4129,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>74</v>
       </c>
@@ -4152,7 +4155,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>84</v>
       </c>
@@ -4178,7 +4181,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
         <v>130</v>
       </c>
@@ -4206,7 +4209,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="B41" s="8" t="s">
         <v>99</v>
@@ -4232,7 +4235,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="B42" s="8" t="s">
         <v>100</v>
@@ -4258,7 +4261,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="B43" s="8" t="s">
         <v>101</v>
@@ -4284,7 +4287,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
       <c r="B44" s="8" t="s">
         <v>102</v>
@@ -4310,7 +4313,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="B45" s="8" t="s">
         <v>103</v>
@@ -4336,7 +4339,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="B46" s="8" t="s">
         <v>104</v>
@@ -4362,7 +4365,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
       <c r="B47" s="8" t="s">
         <v>105</v>
@@ -4388,7 +4391,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="B48" s="8" t="s">
         <v>106</v>
@@ -4414,7 +4417,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64"/>
       <c r="B49" s="8" t="s">
         <v>107</v>
@@ -4440,7 +4443,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="64"/>
       <c r="B50" s="8" t="s">
         <v>108</v>
@@ -4466,7 +4469,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
       <c r="B51" s="8" t="s">
         <v>109</v>
@@ -4492,7 +4495,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A52" s="64"/>
       <c r="B52" s="8" t="s">
         <v>110</v>
@@ -4518,7 +4521,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="8" t="s">
         <v>111</v>
@@ -4544,7 +4547,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>87</v>
       </c>
@@ -4570,7 +4573,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="66" t="s">
         <v>131</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67"/>
       <c r="B56" s="8" t="s">
         <v>114</v>
@@ -4624,7 +4627,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
       <c r="B57" s="8" t="s">
         <v>115</v>
@@ -4650,7 +4653,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="67"/>
       <c r="B58" s="8" t="s">
         <v>116</v>
@@ -4676,7 +4679,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A59" s="67"/>
       <c r="B59" s="8" t="s">
         <v>117</v>
@@ -4702,7 +4705,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A60" s="68"/>
       <c r="B60" s="8" t="s">
         <v>118</v>
@@ -4728,7 +4731,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>135</v>
       </c>
@@ -4756,7 +4759,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>136</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>90</v>
       </c>
@@ -4812,7 +4815,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>91</v>
       </c>
@@ -4840,7 +4843,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>88</v>
       </c>
@@ -4868,7 +4871,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>89</v>
       </c>
@@ -4896,7 +4899,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>132</v>
       </c>
@@ -4924,7 +4927,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>132</v>
       </c>
@@ -4950,7 +4953,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>294</v>
       </c>
@@ -4978,7 +4981,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>166</v>
       </c>
@@ -5024,7 +5027,7 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>165</v>
       </c>
@@ -5067,7 +5070,7 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
     </row>
-    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>258</v>
       </c>
@@ -5093,7 +5096,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>74</v>
       </c>
@@ -5119,7 +5122,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="66" t="s">
         <v>232</v>
       </c>
@@ -5147,7 +5150,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
       <c r="B75" s="8" t="s">
         <v>173</v>
@@ -5173,7 +5176,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="67"/>
       <c r="B76" s="8" t="s">
         <v>174</v>
@@ -5199,7 +5202,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="67"/>
       <c r="B77" s="8" t="s">
         <v>175</v>
@@ -5225,7 +5228,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="67"/>
       <c r="B78" s="8" t="s">
         <v>176</v>
@@ -5251,7 +5254,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
       <c r="B79" s="8" t="s">
         <v>177</v>
@@ -5277,7 +5280,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:32" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A80" s="67"/>
       <c r="B80" s="8" t="s">
         <v>178</v>
@@ -5303,7 +5306,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A81" s="67"/>
       <c r="B81" s="8" t="s">
         <v>179</v>
@@ -5329,7 +5332,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A82" s="68"/>
       <c r="B82" s="8" t="s">
         <v>180</v>
@@ -5355,7 +5358,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="63" t="s">
         <v>233</v>
       </c>
@@ -5383,7 +5386,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="64"/>
       <c r="B84" s="8" t="s">
         <v>182</v>
@@ -5409,7 +5412,7 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64"/>
       <c r="B85" s="8" t="s">
         <v>183</v>
@@ -5435,7 +5438,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64"/>
       <c r="B86" s="8" t="s">
         <v>184</v>
@@ -5461,7 +5464,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A87" s="64"/>
       <c r="B87" s="8" t="s">
         <v>185</v>
@@ -5487,7 +5490,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A88" s="64"/>
       <c r="B88" s="8" t="s">
         <v>186</v>
@@ -5513,7 +5516,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64"/>
       <c r="B89" s="8" t="s">
         <v>187</v>
@@ -5539,7 +5542,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A90" s="64"/>
       <c r="B90" s="8" t="s">
         <v>188</v>
@@ -5565,7 +5568,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A91" s="65"/>
       <c r="B91" s="8" t="s">
         <v>189</v>
@@ -5591,7 +5594,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>135</v>
       </c>
@@ -5619,7 +5622,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>136</v>
       </c>
@@ -5647,7 +5650,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>264</v>
       </c>
@@ -5675,7 +5678,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>261</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>262</v>
       </c>
@@ -5731,7 +5734,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
         <v>255</v>
       </c>
@@ -5759,7 +5762,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:28" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>263</v>
       </c>
@@ -5787,7 +5790,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
         <v>242</v>
       </c>
@@ -5815,7 +5818,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>244</v>
       </c>
@@ -5843,7 +5846,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>88</v>
       </c>
@@ -5871,7 +5874,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>89</v>
       </c>
@@ -5899,7 +5902,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:28" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A103" s="49" t="s">
         <v>132</v>
       </c>
@@ -5927,7 +5930,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>294</v>
       </c>
@@ -5955,7 +5958,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -5970,7 +5973,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -5986,7 +5989,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
     </row>
   </sheetData>
